--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1090335.189803797</v>
+        <v>1087635.219363122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>231.5028800078648</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="W2" t="n">
-        <v>158.088911154863</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>25.02442509440874</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>131.2883984602996</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>158.4606704355599</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415046</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>207.6252915937356</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>98.15119630296384</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>25.64143781050301</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32803912686878</v>
+        <v>12.32803912686879</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.0101722469353</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.234130063628</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5525326337218212</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.86390078907309</v>
+        <v>96.86390078907314</v>
       </c>
       <c r="I6" t="n">
-        <v>34.59798795483308</v>
+        <v>34.59798795483329</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.338774642322761</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.119825736064</v>
+        <v>142.1198257360641</v>
       </c>
       <c r="T6" t="n">
-        <v>193.7494478464192</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8366712945482</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>147.4372898463591</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6566320691319</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.3230128082302</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.2962850770749</v>
       </c>
       <c r="S7" t="n">
-        <v>182.0926233863345</v>
+        <v>34.95433675572023</v>
       </c>
       <c r="T7" t="n">
         <v>222.2442873738851</v>
@@ -1111,7 +1111,7 @@
         <v>286.2462467770731</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>216.4305957177996</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.58299561021759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>182.9387099570815</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>230.8127283073657</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>270.1915102239763</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.30114714720639</v>
+        <v>97.97552699114088</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458122</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.75316679403511</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.5141721840586</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146327</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>196.2511428064802</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.56702400647363</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>100.9025715636457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428037</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>284.94824593707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408059</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983397</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>158.7907697006106</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="F31" t="n">
-        <v>101.6969570046978</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>18.70843787976953</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060428</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833824</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4031,7 +4031,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797018</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.8704849235816</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="C2" t="n">
-        <v>158.8704849235816</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8704849235816</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>253.0259287885576</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192955</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605485</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859557</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779379</v>
+        <v>643.3443219779382</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948972</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444234</v>
+        <v>924.2476725444243</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660183</v>
+        <v>959.2317925660193</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628464</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T2" t="n">
-        <v>803.0167550628464</v>
+        <v>744.4319308337305</v>
       </c>
       <c r="U2" t="n">
-        <v>803.0167550628464</v>
+        <v>502.2016801857458</v>
       </c>
       <c r="V2" t="n">
-        <v>560.786504414862</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="W2" t="n">
-        <v>401.100735571566</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="X2" t="n">
-        <v>401.100735571566</v>
+        <v>259.9714295377611</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.8704849235816</v>
+        <v>259.9714295377611</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.0894928610039</v>
+        <v>193.6376651324474</v>
       </c>
       <c r="C3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="E3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K3" t="n">
-        <v>152.9092351450197</v>
+        <v>86.79245551467734</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607135</v>
+        <v>290.1388331607139</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153181</v>
+        <v>469.6361695153187</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679825</v>
+        <v>668.2929111679832</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367429</v>
+        <v>827.8052238367437</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640416</v>
+        <v>936.4948513640425</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682051</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="T3" t="n">
-        <v>741.1305971282927</v>
+        <v>762.242496726107</v>
       </c>
       <c r="U3" t="n">
-        <v>741.1305971282927</v>
+        <v>534.1037092372728</v>
       </c>
       <c r="V3" t="n">
-        <v>505.97848889655</v>
+        <v>534.1037092372728</v>
       </c>
       <c r="W3" t="n">
-        <v>480.7012918314907</v>
+        <v>534.1037092372728</v>
       </c>
       <c r="X3" t="n">
-        <v>272.8497916259578</v>
+        <v>326.25220903174</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.0894928610039</v>
+        <v>193.6376651324474</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.05922361068303</v>
+        <v>179.2459191195627</v>
       </c>
       <c r="C4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="D4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>19.18463585132039</v>
       </c>
       <c r="K4" t="n">
-        <v>60.34504070228402</v>
+        <v>63.76336012264457</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031023</v>
+        <v>248.5963550234629</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223401</v>
+        <v>453.8659557427007</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584443</v>
+        <v>659.689320578805</v>
       </c>
       <c r="O4" t="n">
-        <v>830.365896547043</v>
+        <v>833.7842159674038</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456586</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660184</v>
+        <v>959.2317925660194</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660184</v>
+        <v>828.7538312854222</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660184</v>
+        <v>828.7538312854222</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660184</v>
+        <v>603.1246345977871</v>
       </c>
       <c r="U4" t="n">
-        <v>717.0015419180339</v>
+        <v>603.1246345977871</v>
       </c>
       <c r="V4" t="n">
-        <v>474.7712912700495</v>
+        <v>603.1246345977871</v>
       </c>
       <c r="W4" t="n">
-        <v>265.0487745087004</v>
+        <v>360.8943839498024</v>
       </c>
       <c r="X4" t="n">
-        <v>37.05922361068303</v>
+        <v>360.8943839498024</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.05922361068303</v>
+        <v>360.8943839498024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.6443662957583</v>
+        <v>776.0158230695492</v>
       </c>
       <c r="C5" t="n">
-        <v>814.501743767512</v>
+        <v>776.0158230695492</v>
       </c>
       <c r="D5" t="n">
-        <v>456.2360451607615</v>
+        <v>750.1153808367179</v>
       </c>
       <c r="E5" t="n">
-        <v>456.2360451607615</v>
+        <v>364.3271282384737</v>
       </c>
       <c r="F5" t="n">
-        <v>45.25014037115398</v>
+        <v>357.3816274892702</v>
       </c>
       <c r="G5" t="n">
-        <v>32.79757559653905</v>
+        <v>344.9290627146553</v>
       </c>
       <c r="H5" t="n">
-        <v>32.79757559653905</v>
+        <v>32.79757559653879</v>
       </c>
       <c r="I5" t="n">
-        <v>32.79757559653905</v>
+        <v>32.79757559653879</v>
       </c>
       <c r="J5" t="n">
-        <v>103.5111993729224</v>
+        <v>103.5111993729216</v>
       </c>
       <c r="K5" t="n">
-        <v>260.231109043753</v>
+        <v>260.2311090437507</v>
       </c>
       <c r="L5" t="n">
-        <v>491.5577769707317</v>
+        <v>491.5577769707273</v>
       </c>
       <c r="M5" t="n">
-        <v>780.6227043607046</v>
+        <v>780.6227043606982</v>
       </c>
       <c r="N5" t="n">
-        <v>1078.978812862757</v>
+        <v>1078.978812862749</v>
       </c>
       <c r="O5" t="n">
-        <v>1347.372764490626</v>
+        <v>1347.372764490616</v>
       </c>
       <c r="P5" t="n">
-        <v>1541.939791832527</v>
+        <v>1541.939791832516</v>
       </c>
       <c r="Q5" t="n">
-        <v>1639.878779826952</v>
+        <v>1639.87877982694</v>
       </c>
       <c r="R5" t="n">
-        <v>1639.878779826952</v>
+        <v>1639.87877982694</v>
       </c>
       <c r="S5" t="n">
-        <v>1639.878779826952</v>
+        <v>1497.218042388932</v>
       </c>
       <c r="T5" t="n">
-        <v>1639.878779826952</v>
+        <v>1497.218042388932</v>
       </c>
       <c r="U5" t="n">
-        <v>1639.878779826952</v>
+        <v>1497.218042388932</v>
       </c>
       <c r="V5" t="n">
-        <v>1639.878779826952</v>
+        <v>1166.155155045361</v>
       </c>
       <c r="W5" t="n">
-        <v>1287.110124556838</v>
+        <v>1166.155155045361</v>
       </c>
       <c r="X5" t="n">
-        <v>913.6443662957583</v>
+        <v>1166.155155045361</v>
       </c>
       <c r="Y5" t="n">
-        <v>913.6443662957583</v>
+        <v>776.0158230695492</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.5873622065453</v>
+        <v>488.9748011489236</v>
       </c>
       <c r="C6" t="n">
-        <v>165.5873622065453</v>
+        <v>314.5217718677966</v>
       </c>
       <c r="D6" t="n">
         <v>165.5873622065453</v>
@@ -4638,58 +4638,58 @@
         <v>165.5873622065453</v>
       </c>
       <c r="H6" t="n">
-        <v>67.74503817717851</v>
+        <v>67.74503817717849</v>
       </c>
       <c r="I6" t="n">
-        <v>32.79757559653905</v>
+        <v>32.79757559653879</v>
       </c>
       <c r="J6" t="n">
-        <v>106.1260320615097</v>
+        <v>56.0962785239395</v>
       </c>
       <c r="K6" t="n">
-        <v>224.1020510521662</v>
+        <v>231.1644257365973</v>
       </c>
       <c r="L6" t="n">
-        <v>429.0579088852804</v>
+        <v>637.0344237437648</v>
       </c>
       <c r="M6" t="n">
-        <v>687.5885960055123</v>
+        <v>895.5651108639952</v>
       </c>
       <c r="N6" t="n">
-        <v>967.3704660474954</v>
+        <v>1175.346980905977</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.096422112188</v>
+        <v>1409.072936970667</v>
       </c>
       <c r="P6" t="n">
-        <v>1369.349041255098</v>
+        <v>1577.325556113577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1639.878779826952</v>
+        <v>1639.87877982694</v>
       </c>
       <c r="R6" t="n">
-        <v>1638.526482208444</v>
+        <v>1639.87877982694</v>
       </c>
       <c r="S6" t="n">
-        <v>1494.971102677066</v>
+        <v>1496.323400295562</v>
       </c>
       <c r="T6" t="n">
-        <v>1299.264589700885</v>
+        <v>1496.323400295562</v>
       </c>
       <c r="U6" t="n">
-        <v>1071.146739908412</v>
+        <v>1268.205550503089</v>
       </c>
       <c r="V6" t="n">
-        <v>835.9946316766698</v>
+        <v>1119.278995102726</v>
       </c>
       <c r="W6" t="n">
-        <v>581.7572749484682</v>
+        <v>865.0416383745244</v>
       </c>
       <c r="X6" t="n">
-        <v>373.9057747429354</v>
+        <v>657.1901381689916</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.1454759779814</v>
+        <v>657.1901381689916</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="C7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="D7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="E7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="F7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="G7" t="n">
-        <v>32.79757559653905</v>
+        <v>149.2854673220238</v>
       </c>
       <c r="H7" t="n">
-        <v>32.79757559653905</v>
+        <v>149.2854673220238</v>
       </c>
       <c r="I7" t="n">
-        <v>32.79757559653905</v>
+        <v>32.79757559653879</v>
       </c>
       <c r="J7" t="n">
-        <v>33.76695710288484</v>
+        <v>33.76695710288423</v>
       </c>
       <c r="K7" t="n">
-        <v>165.1967854136312</v>
+        <v>165.19678541363</v>
       </c>
       <c r="L7" t="n">
-        <v>388.908150548201</v>
+        <v>388.908150548199</v>
       </c>
       <c r="M7" t="n">
-        <v>635.1695415291838</v>
+        <v>635.1695415291811</v>
       </c>
       <c r="N7" t="n">
-        <v>881.010003475765</v>
+        <v>881.0100034757614</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.067165000744</v>
+        <v>1092.06716500074</v>
       </c>
       <c r="P7" t="n">
-        <v>1249.142345707824</v>
+        <v>1249.142345707819</v>
       </c>
       <c r="Q7" t="n">
-        <v>1274.457978826551</v>
+        <v>1274.457978826545</v>
       </c>
       <c r="R7" t="n">
-        <v>1274.457978826551</v>
+        <v>1155.976882789096</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.526036012071</v>
+        <v>1120.669471924732</v>
       </c>
       <c r="T7" t="n">
-        <v>866.036856846531</v>
+        <v>896.1802927591915</v>
       </c>
       <c r="U7" t="n">
-        <v>576.8992338393865</v>
+        <v>607.042669752047</v>
       </c>
       <c r="V7" t="n">
-        <v>322.2147456334997</v>
+        <v>607.042669752047</v>
       </c>
       <c r="W7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="X7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
       <c r="Y7" t="n">
-        <v>32.79757559653905</v>
+        <v>317.6254997150864</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2343.722565048843</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>1990.953909778728</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.953909778728</v>
+        <v>1974.983622028575</v>
       </c>
       <c r="Y8" t="n">
-        <v>1990.953909778728</v>
+        <v>1974.983622028575</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193026</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507743</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4960,16 +4960,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1451.659544360274</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1228.681063555009</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="V10" t="n">
-        <v>1403.301950067057</v>
+        <v>939.5627260588469</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.884780030097</v>
+        <v>650.1455560218863</v>
       </c>
       <c r="X10" t="n">
-        <v>885.8952291320793</v>
+        <v>422.1560051238689</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1963.456154468493</v>
+        <v>1535.258832689359</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1535.258832689359</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1176.993134082608</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1176.993134082608</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>766.0072292930008</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035377</v>
+        <v>351.4317836226478</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301228</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878114</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.18066176543</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687108</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.04835985629</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882249</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234599</v>
       </c>
       <c r="S11" t="n">
-        <v>3902.016798964689</v>
+        <v>3826.588132455669</v>
       </c>
       <c r="T11" t="n">
-        <v>3698.214688480469</v>
+        <v>3622.786021971448</v>
       </c>
       <c r="U11" t="n">
-        <v>3444.723972113077</v>
+        <v>3369.295305604057</v>
       </c>
       <c r="V11" t="n">
-        <v>3113.661084769506</v>
+        <v>3038.232418260486</v>
       </c>
       <c r="W11" t="n">
-        <v>3113.661084769506</v>
+        <v>2685.463762990372</v>
       </c>
       <c r="X11" t="n">
-        <v>2740.195326508427</v>
+        <v>2311.998004729292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.055994532615</v>
+        <v>1921.85867275348</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5115,31 +5115,31 @@
         <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.8120623792133</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469189</v>
+        <v>477.1621322376513</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520017</v>
+        <v>900.4499396649617</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895891</v>
+        <v>977.390502384804</v>
       </c>
       <c r="N12" t="n">
-        <v>1556.420955246958</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2029.392508112708</v>
+        <v>1991.670362601621</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.660810952862</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.264605570335</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="C13" t="n">
-        <v>523.3284226424281</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="D13" t="n">
-        <v>373.3141073049954</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226022</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.51106622469197</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600403</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457712</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.500225288893</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.908548779223</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542996</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715851</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082524</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551108</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014276</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>1888.302075370159</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.488017920205</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.00427954144</v>
+        <v>1378.397311360493</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298592</v>
+        <v>834.2956531176455</v>
       </c>
       <c r="X13" t="n">
-        <v>873.9130704005747</v>
+        <v>606.3061022196282</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9130704005747</v>
+        <v>408.0726246373248</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,22 +5276,22 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021279</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608048</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072594</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220724</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941654</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>325.1228070941654</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="E16" t="n">
-        <v>325.1228070941654</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="F16" t="n">
-        <v>178.2328595962551</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608048</v>
@@ -5440,7 +5440,7 @@
         <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,7 +5449,7 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020527</v>
       </c>
       <c r="P16" t="n">
         <v>2310.662640856732</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
         <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958422</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.707454852312</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561141</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y19" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003837</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797772</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854709</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188005</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797733</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138402</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.50206557031</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.1060525954242</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954242</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830885</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830885</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851781</v>
+        <v>194.8007783998302</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2103.713532365861</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1814.638305710059</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1559.953817504172</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1270.536647467211</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1042.547096569194</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.7545174256639</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400719</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277361</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277361</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,28 +6692,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998254</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908933</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797713</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>6.233205181928426</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923489</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66.78462588923512</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>46.2513171076363</v>
+        <v>49.70416500699031</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839806</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.72614018220105</v>
+        <v>28.72614018220176</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.53510458340338</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>57.66881638586082</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>202.9435759333884</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>60.35797727397625</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>21.89339468985681</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670095</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238004</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.67437984393457</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1013008341537898</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.7150774703403</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>22.33351054561456</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>80.97502887069329</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788604</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.265836318569</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393199</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.574752399521003</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194289</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409392914</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>58.61468062667763</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823093</v>
       </c>
       <c r="F31" t="n">
-        <v>43.72409101823348</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856714</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431617</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393105</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823093</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194279</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981540.2662691387</v>
+        <v>981540.2662691388</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878239.7642837331</v>
+        <v>878239.7642837337</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360034</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360039</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360034</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360034</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="15">
@@ -26314,13 +26314,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719633</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.017671963</v>
-      </c>
       <c r="E2" t="n">
-        <v>423807.2415876634</v>
+        <v>423807.241587664</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918676</v>
@@ -26332,28 +26332,28 @@
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217533</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217535</v>
+        <v>464109.2948217534</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>652246.4444800892</v>
       </c>
       <c r="C3" t="n">
-        <v>188359.3659153338</v>
+        <v>188359.36591533</v>
       </c>
       <c r="D3" t="n">
-        <v>237873.3608784675</v>
+        <v>237873.3608784707</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357069</v>
+        <v>325187.1190357083</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.347105137</v>
+        <v>166521.3471051358</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.2362355791</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353577</v>
+        <v>62744.3107835359</v>
       </c>
       <c r="K3" t="n">
-        <v>43794.18845434301</v>
+        <v>43794.18845434213</v>
       </c>
       <c r="L3" t="n">
-        <v>58366.6156747352</v>
+        <v>58366.61567473589</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456838</v>
+        <v>84929.59434456872</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848853</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210674.4096404443</v>
+        <v>210674.4096404452</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26436,13 +26436,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26451,13 +26451,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>61145.7022343733</v>
       </c>
       <c r="C5" t="n">
-        <v>74684.80313834058</v>
+        <v>74684.80313834033</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>86093.72216214726</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-502355.9365485258</v>
+        <v>-502355.936548526</v>
       </c>
       <c r="C6" t="n">
-        <v>-1619.561022155554</v>
+        <v>-1619.561022152193</v>
       </c>
       <c r="D6" t="n">
-        <v>-2663.209629168137</v>
+        <v>-2663.20962917115</v>
       </c>
       <c r="E6" t="n">
-        <v>-371.3427997149847</v>
+        <v>-581.3070435606802</v>
       </c>
       <c r="F6" t="n">
-        <v>181887.0615472872</v>
+        <v>181841.1565517227</v>
       </c>
       <c r="G6" t="n">
-        <v>338822.6646154367</v>
+        <v>338787.9266900012</v>
       </c>
       <c r="H6" t="n">
-        <v>349989.9008510162</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="I6" t="n">
-        <v>349989.900851016</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="J6" t="n">
-        <v>287245.5900674803</v>
+        <v>287210.8521420445</v>
       </c>
       <c r="K6" t="n">
-        <v>306195.7123966732</v>
+        <v>306160.9744712382</v>
       </c>
       <c r="L6" t="n">
-        <v>291623.2851762808</v>
+        <v>291588.5472508444</v>
       </c>
       <c r="M6" t="n">
-        <v>265060.3065064477</v>
+        <v>265025.5685810117</v>
       </c>
       <c r="N6" t="n">
-        <v>306207.4942925273</v>
+        <v>306172.7563670917</v>
       </c>
       <c r="O6" t="n">
-        <v>346966.6028737912</v>
+        <v>346931.8649483553</v>
       </c>
       <c r="P6" t="n">
-        <v>349989.9008510159</v>
+        <v>349955.1629255801</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>739.9562240812345</v>
+        <v>739.9562240812318</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>409.9696949567381</v>
+        <v>409.9696949567349</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.3883278086497</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="C3" t="n">
-        <v>146.4801237431699</v>
+        <v>146.4801237431669</v>
       </c>
       <c r="D3" t="n">
-        <v>194.1086680363048</v>
+        <v>194.1086680363074</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377017</v>
+        <v>278.1053753770183</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218279</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="C4" t="n">
-        <v>170.1617468152335</v>
+        <v>170.16174681523</v>
       </c>
       <c r="D4" t="n">
-        <v>230.6151371433008</v>
+        <v>230.615137143304</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086097</v>
+        <v>340.8034957086109</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173563</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415044</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>170.1617468152335</v>
+        <v>170.16174681523</v>
       </c>
       <c r="L4" t="n">
-        <v>230.615137143301</v>
+        <v>230.6151371433037</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086097</v>
+        <v>340.8034957086111</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173563</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>239.8079481415049</v>
       </c>
       <c r="K4" t="n">
-        <v>170.1617468152335</v>
+        <v>170.16174681523</v>
       </c>
       <c r="L4" t="n">
-        <v>230.6151371433008</v>
+        <v>230.615137143304</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086097</v>
+        <v>340.8034957086109</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173563</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>181.4140239380719</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079578</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863031</v>
+        <v>87.94431032863005</v>
       </c>
       <c r="W2" t="n">
-        <v>191.1520575625501</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.429990514549</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -27512,19 +27512,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>226.6705580665109</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>74.39429731700471</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>8.786150663067929</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>46.4527065165924</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232341</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>78.89770674285543</v>
+        <v>46.71505019508615</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>267.1216954680437</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>329.0416038101799</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.0101722469352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.79382995677054</v>
+        <v>95.79382995677096</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.2341300636277</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.0741073694958</v>
@@ -27673,16 +27673,16 @@
         <v>251.1076770367752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9806510161455</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.338774642323116</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.7494478464192</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>85.36329730306613</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6566320691319</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.3636120623339</v>
       </c>
       <c r="I7" t="n">
-        <v>115.32301280823</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2962850770747</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.66994052664228</v>
+        <v>165.8082271572566</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>111.3216627523353</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1481050682514</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28059,16 +28059,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>11.72375040465593</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>21.32491501646226</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-3.452939267845068e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.605826582817826e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.974698388266267</v>
+        <v>2.974698388266256</v>
       </c>
       <c r="H5" t="n">
-        <v>30.46462986883192</v>
+        <v>30.4646298688318</v>
       </c>
       <c r="I5" t="n">
-        <v>114.6820596136354</v>
+        <v>114.6820596136349</v>
       </c>
       <c r="J5" t="n">
-        <v>252.4738073311143</v>
+        <v>252.4738073311134</v>
       </c>
       <c r="K5" t="n">
-        <v>378.3927901064255</v>
+        <v>378.3927901064241</v>
       </c>
       <c r="L5" t="n">
-        <v>469.4297159063294</v>
+        <v>469.4297159063276</v>
       </c>
       <c r="M5" t="n">
-        <v>522.3310083686596</v>
+        <v>522.3310083686576</v>
       </c>
       <c r="N5" t="n">
-        <v>530.7828701643211</v>
+        <v>530.7828701643192</v>
       </c>
       <c r="O5" t="n">
-        <v>501.2032130659984</v>
+        <v>501.2032130659965</v>
       </c>
       <c r="P5" t="n">
-        <v>427.7653466056748</v>
+        <v>427.7653466056733</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.2339605758891</v>
+        <v>321.2339605758879</v>
       </c>
       <c r="R5" t="n">
-        <v>186.8593976319311</v>
+        <v>186.8593976319304</v>
       </c>
       <c r="S5" t="n">
-        <v>67.78593952261762</v>
+        <v>67.78593952261738</v>
       </c>
       <c r="T5" t="n">
-        <v>13.02174219463559</v>
+        <v>13.02174219463554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2379758710613013</v>
+        <v>0.2379758710613004</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.591603953684165</v>
+        <v>1.591603953684159</v>
       </c>
       <c r="H6" t="n">
-        <v>15.37154344742338</v>
+        <v>15.37154344742333</v>
       </c>
       <c r="I6" t="n">
-        <v>54.798644896582</v>
+        <v>54.79864489658179</v>
       </c>
       <c r="J6" t="n">
-        <v>150.3716700276781</v>
+        <v>150.3716700276775</v>
       </c>
       <c r="K6" t="n">
-        <v>257.0091349245171</v>
+        <v>257.0091349245162</v>
       </c>
       <c r="L6" t="n">
-        <v>345.5804988032219</v>
+        <v>345.5804988032206</v>
       </c>
       <c r="M6" t="n">
-        <v>403.2761421242727</v>
+        <v>403.2761421242712</v>
       </c>
       <c r="N6" t="n">
-        <v>413.9496616206899</v>
+        <v>413.9496616206883</v>
       </c>
       <c r="O6" t="n">
-        <v>378.6830687522144</v>
+        <v>378.683068752213</v>
       </c>
       <c r="P6" t="n">
-        <v>303.9265479627244</v>
+        <v>303.9265479627233</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.1668485439646</v>
+        <v>203.1668485439639</v>
       </c>
       <c r="R6" t="n">
-        <v>98.81905951032037</v>
+        <v>98.81905951032002</v>
       </c>
       <c r="S6" t="n">
-        <v>29.56334536777383</v>
+        <v>29.56334536777372</v>
       </c>
       <c r="T6" t="n">
-        <v>6.415280848402399</v>
+        <v>6.415280848402375</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047107864265898</v>
+        <v>0.1047107864265894</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.334347289326816</v>
+        <v>1.334347289326811</v>
       </c>
       <c r="H7" t="n">
-        <v>11.8635604451057</v>
+        <v>11.86356044510566</v>
       </c>
       <c r="I7" t="n">
-        <v>40.12746211902827</v>
+        <v>40.12746211902812</v>
       </c>
       <c r="J7" t="n">
-        <v>94.3383533554059</v>
+        <v>94.33835335540554</v>
       </c>
       <c r="K7" t="n">
-        <v>155.0268941599701</v>
+        <v>155.0268941599695</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3810506331887</v>
+        <v>198.381050633188</v>
       </c>
       <c r="M7" t="n">
-        <v>209.1650028169299</v>
+        <v>209.1650028169291</v>
       </c>
       <c r="N7" t="n">
-        <v>204.1915265567119</v>
+        <v>204.1915265567112</v>
       </c>
       <c r="O7" t="n">
-        <v>188.6039241313941</v>
+        <v>188.6039241313933</v>
       </c>
       <c r="P7" t="n">
-        <v>161.3832394291269</v>
+        <v>161.3832394291263</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.7333898362664</v>
+        <v>111.733389836266</v>
       </c>
       <c r="R7" t="n">
-        <v>59.99710630009483</v>
+        <v>59.99710630009461</v>
       </c>
       <c r="S7" t="n">
-        <v>23.25403412399551</v>
+        <v>23.25403412399542</v>
       </c>
       <c r="T7" t="n">
-        <v>5.701302054396395</v>
+        <v>5.701302054396374</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07278257941782643</v>
+        <v>0.07278257941782615</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485655</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508997</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380259</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307184</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726063</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216981</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857436</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898398</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294417</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615145</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895593</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356985</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951045</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188523</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969426</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191525</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596489</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783044</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202559</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256423</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>219.8517740430711</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147148</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431816</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.8817840205476</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.9200147126257</v>
+        <v>332.820787407185</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533299</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697592</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236087</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737177</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691798</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836914</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619744</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.980861550918</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263713</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973098</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050063</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761899</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916782</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570622</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929616</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826915</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.119229862376514</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396509</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>391.6330708361152</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426203</v>
@@ -32099,7 +32099,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068259</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>21.44873736705378</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>83.39712583292146</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>140.7360160012657</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>196.297184739376</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>171.887904360565</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>111.8528537874004</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>35.33749497130808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219186</v>
+        <v>68.29072693268378</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>205.400381460643</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>109.787502552827</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>22.96660727472414</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.57616651612491</v>
+        <v>45.02901441547897</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.42790280442804</v>
+        <v>71.42790280442711</v>
       </c>
       <c r="K5" t="n">
-        <v>158.3029390614449</v>
+        <v>158.3029390614435</v>
       </c>
       <c r="L5" t="n">
-        <v>233.6633009363421</v>
+        <v>233.6633009363404</v>
       </c>
       <c r="M5" t="n">
-        <v>291.9847751413869</v>
+        <v>291.9847751413849</v>
       </c>
       <c r="N5" t="n">
-        <v>301.3698065677302</v>
+        <v>301.3698065677283</v>
       </c>
       <c r="O5" t="n">
-        <v>271.1050016443116</v>
+        <v>271.1050016443098</v>
       </c>
       <c r="P5" t="n">
-        <v>196.5323508504053</v>
+        <v>196.5323508504038</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.92827070143957</v>
+        <v>98.92827070143838</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.06914794441477</v>
+        <v>23.53404336101082</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1676959501581</v>
+        <v>176.836512336018</v>
       </c>
       <c r="L6" t="n">
-        <v>207.0261190233477</v>
+        <v>409.9696949567349</v>
       </c>
       <c r="M6" t="n">
-        <v>261.1421082022544</v>
+        <v>261.1421082022529</v>
       </c>
       <c r="N6" t="n">
-        <v>282.6079495373566</v>
+        <v>282.607949537355</v>
       </c>
       <c r="O6" t="n">
-        <v>236.08682430777</v>
+        <v>236.0868243077686</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9521405483942</v>
+        <v>169.9521405483931</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.2623621937922</v>
+        <v>63.18507445794236</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9791732387331251</v>
+        <v>0.9791732387327698</v>
       </c>
       <c r="K7" t="n">
-        <v>132.7574023340872</v>
+        <v>132.7574023340866</v>
       </c>
       <c r="L7" t="n">
-        <v>225.9710758935048</v>
+        <v>225.9710758935041</v>
       </c>
       <c r="M7" t="n">
-        <v>248.7488797787705</v>
+        <v>248.7488797787697</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3236989359405</v>
+        <v>248.3236989359398</v>
       </c>
       <c r="O7" t="n">
-        <v>213.1890520454337</v>
+        <v>213.189052045433</v>
       </c>
       <c r="P7" t="n">
-        <v>158.6617986940203</v>
+        <v>158.6617986940198</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.57134658457203</v>
+        <v>25.57134658457161</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>246.9454735174611</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040322</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276258</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517108</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584709</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932489</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.955268607755</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.517153706245</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151098</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156638</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116377</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458969</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457681</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>77.71774012105284</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313816</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987372</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.9073766062174</v>
       </c>
       <c r="Q12" t="n">
-        <v>170.9382406266043</v>
+        <v>192.8390133211635</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.2024045893659</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701858</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360916</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112341</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882119</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765384</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.549444619046</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410834</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.8756671399838</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977673</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>260.2913587527819</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981759</v>
@@ -35747,7 +35747,7 @@
         <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.329632432467</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096377</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066264</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295037</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37716,7 +37716,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066246</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
